--- a/Assets/Resources/WeiboTxt/WeiboContentList.xlsx
+++ b/Assets/Resources/WeiboTxt/WeiboContentList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Index</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Avat</t>
-  </si>
-  <si>
     <t>老张</t>
   </si>
   <si>
@@ -53,52 +50,34 @@
     <t>Random</t>
   </si>
   <si>
-    <t>ava000</t>
-  </si>
-  <si>
     <t>老刘</t>
   </si>
   <si>
     <t>转发这条锦鲤，也没什么卵用</t>
   </si>
   <si>
-    <t>ava001</t>
-  </si>
-  <si>
     <t>钱龙</t>
   </si>
   <si>
     <t>当朝大学士，总共有五位，朕不得不罢免三位</t>
   </si>
   <si>
-    <t>ava002</t>
-  </si>
-  <si>
     <t>李云龙</t>
   </si>
   <si>
     <t>意大利炮堵了</t>
   </si>
   <si>
-    <t>ava003</t>
-  </si>
-  <si>
     <t>王老菊</t>
   </si>
   <si>
     <t>卧槽</t>
   </si>
   <si>
-    <t>ava004</t>
-  </si>
-  <si>
     <t>铜教授</t>
   </si>
   <si>
     <t>早上起来，拥抱太阳。太阳说，“哎嘛我热死了”</t>
-  </si>
-  <si>
-    <t>ava005</t>
   </si>
 </sst>
 </file>
@@ -448,7 +427,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,25 +449,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -496,16 +470,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -513,16 +484,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -530,16 +498,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -547,16 +512,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -564,16 +526,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/WeiboTxt/WeiboContentList.xlsx
+++ b/Assets/Resources/WeiboTxt/WeiboContentList.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Index</t>
   </si>
@@ -78,6 +79,66 @@
   </si>
   <si>
     <t>早上起来，拥抱太阳。太阳说，“哎嘛我热死了”</t>
+  </si>
+  <si>
+    <t>Review1</t>
+  </si>
+  <si>
+    <t>Bonus1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Reviewable</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Bonus2</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Bonus3</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Forwardable</t>
+  </si>
+  <si>
+    <t>NumOfReview</t>
+  </si>
+  <si>
+    <t>Review2</t>
+  </si>
+  <si>
+    <t>Review3</t>
+  </si>
+  <si>
+    <t>GainCard</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>好吃个球</t>
+  </si>
+  <si>
+    <t>奥力给</t>
+  </si>
+  <si>
+    <t>AddKoucai</t>
+  </si>
+  <si>
+    <t>AddJishu</t>
   </si>
 </sst>
 </file>
@@ -133,8 +194,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -144,11 +207,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,19 +489,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="55.5" customWidth="1"/>
+    <col min="3" max="4" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="19.6640625" customWidth="1"/>
+    <col min="22" max="22" width="16.83203125" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" customWidth="1"/>
+    <col min="24" max="24" width="19.6640625" customWidth="1"/>
+    <col min="25" max="25" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,11 +527,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,10 +586,41 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -476,64 +631,183 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/WeiboTxt/WeiboContentList.xlsx
+++ b/Assets/Resources/WeiboTxt/WeiboContentList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Index</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>AddJishu</t>
+  </si>
+  <si>
+    <t>老马</t>
+  </si>
+  <si>
+    <t>【今日哲学】因为你不会，所以你才会</t>
+  </si>
+  <si>
+    <t>下饭啊，老马</t>
   </si>
 </sst>
 </file>
@@ -489,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,6 +511,7 @@
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" customWidth="1"/>
     <col min="16" max="16" width="17.83203125" customWidth="1"/>
@@ -648,6 +658,41 @@
       <c r="J3" s="1"/>
       <c r="M3" s="1"/>
       <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/WeiboTxt/WeiboContentList.xlsx
+++ b/Assets/Resources/WeiboTxt/WeiboContentList.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JianingXU/GitHub/CSCI529/Assets/Resources/WeiboTxt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\WeiboTxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F5541-4FAE-4BDD-B2A0-9EDF9331F8A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="4170" yWindow="3555" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -230,6 +231,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -497,36 +501,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="55.5" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" customWidth="1"/>
-    <col min="22" max="22" width="16.83203125" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" customWidth="1"/>
-    <col min="24" max="24" width="19.6640625" customWidth="1"/>
-    <col min="25" max="25" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="16" max="16" width="17.875" customWidth="1"/>
+    <col min="17" max="17" width="14.375" customWidth="1"/>
+    <col min="18" max="18" width="19.625" customWidth="1"/>
+    <col min="19" max="19" width="16.875" customWidth="1"/>
+    <col min="20" max="20" width="14.375" customWidth="1"/>
+    <col min="21" max="21" width="19.625" customWidth="1"/>
+    <col min="22" max="22" width="16.875" customWidth="1"/>
+    <col min="23" max="23" width="14.375" customWidth="1"/>
+    <col min="24" max="24" width="19.625" customWidth="1"/>
+    <col min="25" max="25" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,7 +634,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -659,7 +663,7 @@
       <c r="M3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -700,16 +704,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -738,7 +742,7 @@
       <c r="M1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -767,7 +771,7 @@
       <c r="M2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -796,7 +800,7 @@
       <c r="M3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -825,7 +829,7 @@
       <c r="M4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>

--- a/Assets/Resources/WeiboTxt/WeiboContentList.xlsx
+++ b/Assets/Resources/WeiboTxt/WeiboContentList.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\WeiboTxt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414F5541-4FAE-4BDD-B2A0-9EDF9331F8A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3555" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18435" windowHeight="12870" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="103">
   <si>
     <t>Index</t>
   </si>
@@ -40,9 +26,51 @@
     <t>Desp</t>
   </si>
   <si>
+    <t>Content</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
+    <t>Forwardable</t>
+  </si>
+  <si>
+    <t>GainCard</t>
+  </si>
+  <si>
+    <t>Reviewable</t>
+  </si>
+  <si>
+    <t>NumOfReview</t>
+  </si>
+  <si>
+    <t>Review1</t>
+  </si>
+  <si>
+    <t>Bonus1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Review2</t>
+  </si>
+  <si>
+    <t>Bonus2</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Review3</t>
+  </si>
+  <si>
+    <t>Bonus3</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
     <t>老张</t>
   </si>
   <si>
@@ -52,12 +80,228 @@
     <t>Random</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>奥力给</t>
+  </si>
+  <si>
+    <t>AddKoucai</t>
+  </si>
+  <si>
+    <t>好吃个球</t>
+  </si>
+  <si>
+    <t>AddJishu</t>
+  </si>
+  <si>
     <t>老刘</t>
   </si>
   <si>
     <t>转发这条锦鲤，也没什么卵用</t>
   </si>
   <si>
+    <t>老马</t>
+  </si>
+  <si>
+    <t>【今日哲学】因为你不会，所以你才会</t>
+  </si>
+  <si>
+    <t>下饭啊，老马</t>
+  </si>
+  <si>
+    <t>鲁本为</t>
+  </si>
+  <si>
+    <t>给阿姨倒一杯卡布奇诺，我不信他17张能秒我</t>
+  </si>
+  <si>
+    <t>好的等你！！！！</t>
+  </si>
+  <si>
+    <t>啊啊啊啊！</t>
+  </si>
+  <si>
+    <t>米军</t>
+  </si>
+  <si>
+    <t>干翻华为，干翻荣耀</t>
+  </si>
+  <si>
+    <t>小叮当</t>
+  </si>
+  <si>
+    <t>我小叮当没有开挂</t>
+  </si>
+  <si>
+    <t>谁问的你，别自作多情</t>
+  </si>
+  <si>
+    <t>菜虚坤</t>
+  </si>
+  <si>
+    <t>我是练习两年半的练习生，我喜欢唱跳rap</t>
+  </si>
+  <si>
+    <t>好想你</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>红牛正微</t>
+  </si>
+  <si>
+    <t>淡黄的长裙，蓬松的头发</t>
+  </si>
+  <si>
+    <t>jony j</t>
+  </si>
+  <si>
+    <t>这奶粉钱太不好挣了，饶了我吧</t>
+  </si>
+  <si>
+    <t>等你呀！期待</t>
+  </si>
+  <si>
+    <t>郭老师</t>
+  </si>
+  <si>
+    <t>你在无中生有，暗度陈仓，无言无语，凭空想象</t>
+  </si>
+  <si>
+    <t>六六六</t>
+  </si>
+  <si>
+    <t>对你的爱不讲道理</t>
+  </si>
+  <si>
+    <t>冬泳怪哥</t>
+  </si>
+  <si>
+    <t>让我们一起加油，奥里给</t>
+  </si>
+  <si>
+    <t>刘某</t>
+  </si>
+  <si>
+    <t>我兄弟没有开挂，相信我</t>
+  </si>
+  <si>
+    <t>期待已久</t>
+  </si>
+  <si>
+    <t>黄鹤</t>
+  </si>
+  <si>
+    <t>我的皮革厂又开起来了</t>
+  </si>
+  <si>
+    <t>看热闹来了</t>
+  </si>
+  <si>
+    <t>强势围观</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>今天给大家准备了5万的红包，准时开奖</t>
+  </si>
+  <si>
+    <t>今天给大家准备了6万的红包，准时开奖</t>
+  </si>
+  <si>
+    <t>法外狂徒</t>
+  </si>
+  <si>
+    <t>我张三又来了，大家猜猜今天我要犯什么罪</t>
+  </si>
+  <si>
+    <t>我又来了</t>
+  </si>
+  <si>
+    <t>雪倩儿</t>
+  </si>
+  <si>
+    <t>我开始热身了 新专辑 启动... ​​​​</t>
+  </si>
+  <si>
+    <t>我喜欢你</t>
+  </si>
+  <si>
+    <t>我也是</t>
+  </si>
+  <si>
+    <t>张大伟</t>
+  </si>
+  <si>
+    <t>DM48♡情人节的《糖》发啦～难捱的时间，我们的爱就像一排坦克</t>
+  </si>
+  <si>
+    <t>DM49♡情人节的《糖》发啦～难捱的时间，我们的爱就像一排坦克</t>
+  </si>
+  <si>
+    <t>朱碧石</t>
+  </si>
+  <si>
+    <t>石头 剪刀 布 如果你们输了 请我吃饭 我先出</t>
+  </si>
+  <si>
+    <t>差评</t>
+  </si>
+  <si>
+    <t>孙漂亮</t>
+  </si>
+  <si>
+    <t>趁我在 新世界 里，就这一会儿……就这一会儿</t>
+  </si>
+  <si>
+    <t>呕！</t>
+  </si>
+  <si>
+    <t>给爷整吐了</t>
+  </si>
+  <si>
+    <t>丑小鸭</t>
+  </si>
+  <si>
+    <t>我不要你觉得，我就觉得俺们青岛小哥就是这么敞亮！气派！</t>
+  </si>
+  <si>
+    <t>神算子</t>
+  </si>
+  <si>
+    <t>我最亲爱的多多宝贝，今年你的生日是有些冷清，但也最温暖，虽然没有同学和朋友，但是我们一家人在一起。生日快乐！我的宝贝，永远爱你！</t>
+  </si>
+  <si>
+    <t>不开心</t>
+  </si>
+  <si>
+    <t>段威威</t>
+  </si>
+  <si>
+    <t>不管多远的距离，越努力就越靠近！青春制作人们，期待我未来的一步步蜕变吧！</t>
+  </si>
+  <si>
+    <t>别搞啊！！</t>
+  </si>
+  <si>
+    <t>六翻了~~</t>
+  </si>
+  <si>
+    <t>爱奇异</t>
+  </si>
+  <si>
+    <t>转发本条微博，并说出你支持的训练生，及支持她的理由，截止4月8日18:00，春卷将抽取热转前五的青春制作人，分别送出5张随机签名照哦~</t>
+  </si>
+  <si>
+    <t>转发本条微博，并说出你支持的训练生，及支持她的理由，截止4月8日18:00，春卷将抽取热转前五的青春制作人，分别送出6张随机签名照哦~</t>
+  </si>
+  <si>
     <t>钱龙</t>
   </si>
   <si>
@@ -80,122 +324,370 @@
   </si>
   <si>
     <t>早上起来，拥抱太阳。太阳说，“哎嘛我热死了”</t>
-  </si>
-  <si>
-    <t>Review1</t>
-  </si>
-  <si>
-    <t>Bonus1</t>
-  </si>
-  <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Reviewable</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Bonus2</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>Bonus3</t>
-  </si>
-  <si>
-    <t>Value3</t>
-  </si>
-  <si>
-    <t>Forwardable</t>
-  </si>
-  <si>
-    <t>NumOfReview</t>
-  </si>
-  <si>
-    <t>Review2</t>
-  </si>
-  <si>
-    <t>Review3</t>
-  </si>
-  <si>
-    <t>GainCard</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>好吃个球</t>
-  </si>
-  <si>
-    <t>奥力给</t>
-  </si>
-  <si>
-    <t>AddKoucai</t>
-  </si>
-  <si>
-    <t>AddJishu</t>
-  </si>
-  <si>
-    <t>老马</t>
-  </si>
-  <si>
-    <t>【今日哲学】因为你不会，所以你才会</t>
-  </si>
-  <si>
-    <t>下饭啊，老马</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -203,37 +695,304 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="47">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -282,7 +1041,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -317,7 +1076,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -491,24 +1250,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="55.5" customWidth="1"/>
@@ -530,7 +1284,7 @@
     <col min="25" max="25" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,120 +1295,120 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -663,77 +1417,779 @@
       <c r="M3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -742,27 +2198,27 @@
       <c r="M1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -771,27 +2227,27 @@
       <c r="M2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -800,27 +2256,27 @@
       <c r="M3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -829,27 +2285,27 @@
       <c r="M4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -860,5 +2316,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>